--- a/ProduccionVehicular.xlsx
+++ b/ProduccionVehicular.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F464CB0-4D69-4538-A832-F42775208400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EBD98D-AA75-4F8B-B9BD-6EDF746D46EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{71385256-3613-48C7-A851-1728C14EAD3E}"/>
   </bookViews>
@@ -49,12 +49,6 @@
     <t>Vehículos pasajeros Año</t>
   </si>
   <si>
-    <t>Producción anual de vehículos</t>
-  </si>
-  <si>
-    <t>Var.</t>
-  </si>
-  <si>
     <t>Uzbekistán [+]</t>
   </si>
   <si>
@@ -176,13 +170,19 @@
   </si>
   <si>
     <t>Alemania [+]</t>
+  </si>
+  <si>
+    <t>ProducciónAnualDeVehículos</t>
+  </si>
+  <si>
+    <t>Var</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +192,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -219,11 +227,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66D38FE-00CA-4645-BD62-2D2DBFC115E9}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +562,7 @@
     <col min="5" max="5" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -567,15 +576,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
       </c>
       <c r="B2">
         <v>2020</v>
@@ -593,9 +602,9 @@
         <v>3.3099999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2020</v>
@@ -613,9 +622,9 @@
         <v>-0.22500000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>2020</v>
@@ -633,9 +642,9 @@
         <v>-9.2700000000000005E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>2020</v>
@@ -652,10 +661,11 @@
       <c r="F5" s="2">
         <v>6.9999999999999999E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>2020</v>
@@ -673,9 +683,9 @@
         <v>-0.2913</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>2017</v>
@@ -693,9 +703,9 @@
         <v>0.1004</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>2020</v>
@@ -713,9 +723,9 @@
         <v>-0.25850000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>2020</v>
@@ -733,9 +743,9 @@
         <v>-0.3342</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>2020</v>
@@ -753,9 +763,9 @@
         <v>-0.12590000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>2020</v>
@@ -773,9 +783,9 @@
         <v>-0.1067</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>2020</v>
@@ -793,9 +803,9 @@
         <v>-0.27450000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>2020</v>
@@ -813,9 +823,9 @@
         <v>-0.2235</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>2020</v>
@@ -833,9 +843,9 @@
         <v>-0.29749999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>2017</v>
@@ -853,9 +863,9 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>2020</v>
@@ -875,7 +885,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>2020</v>
@@ -895,7 +905,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>2020</v>
@@ -915,7 +925,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>2020</v>
@@ -932,7 +942,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>2020</v>
@@ -952,7 +962,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>2020</v>
@@ -972,7 +982,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>2020</v>
@@ -992,7 +1002,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>2020</v>
@@ -1012,7 +1022,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>2020</v>
@@ -1032,7 +1042,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>2020</v>
@@ -1052,7 +1062,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>2020</v>
@@ -1072,7 +1082,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>2020</v>
@@ -1092,7 +1102,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>2020</v>
@@ -1112,7 +1122,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>2020</v>
@@ -1132,7 +1142,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>2020</v>
@@ -1152,7 +1162,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>2020</v>
@@ -1172,7 +1182,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>2020</v>
@@ -1192,7 +1202,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>2020</v>
@@ -1212,7 +1222,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>2020</v>
@@ -1232,7 +1242,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>2020</v>
@@ -1252,7 +1262,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>2020</v>
@@ -1272,7 +1282,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>2020</v>
@@ -1292,7 +1302,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B38">
         <v>2020</v>
@@ -1312,7 +1322,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B39">
         <v>2020</v>
@@ -1332,7 +1342,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B40">
         <v>2017</v>
@@ -1352,7 +1362,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B41">
         <v>2020</v>
@@ -1372,7 +1382,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B42">
         <v>2020</v>
